--- a/Assets/Excel/PlayerStateInfo.xlsx
+++ b/Assets/Excel/PlayerStateInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25544A1A-8915-487F-9126-909D17CB8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B927D2A-D6F0-40B9-87FF-C00D188A7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -50,13 +50,17 @@
   </si>
   <si>
     <t>player</t>
+  </si>
+  <si>
+    <t>defence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +81,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -86,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,13 +120,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -420,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -439,7 +464,7 @@
     <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +492,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -495,6 +523,9 @@
       </c>
       <c r="I2">
         <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/PlayerStateInfo.xlsx
+++ b/Assets/Excel/PlayerStateInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B927D2A-D6F0-40B9-87FF-C00D188A7083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576A248-87E0-492F-9749-5F4F14A0AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="492" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -448,7 +448,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -504,10 +504,10 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>100</v>
       </c>
       <c r="E2">
         <v>1</v>
